--- a/doc/Instruction table.xlsx
+++ b/doc/Instruction table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="11640" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="11640" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Base Instruction Set" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="482">
   <si>
     <t>#</t>
   </si>
@@ -1460,6 +1460,42 @@
   </si>
   <si>
     <t>RET8 *(HE+PO)</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>SDIV</t>
+  </si>
+  <si>
+    <t>Signed Division</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1599,6 +1635,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,7 +1812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1805,6 +1847,8 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1841,8 +1885,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -2156,11 +2199,11 @@
   </sheetPr>
   <dimension ref="B1:AB133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="18585" ySplit="2565" topLeftCell="AA57" activePane="bottomLeft"/>
-      <selection activeCell="L2" sqref="L2:O3"/>
+    <sheetView tabSelected="1" topLeftCell="H5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="18585" ySplit="495" topLeftCell="AA41" activePane="bottomLeft"/>
+      <selection activeCell="W4" sqref="W4:W13"/>
       <selection pane="topRight" activeCell="AD134" sqref="AD134"/>
-      <selection pane="bottomLeft" activeCell="U78" sqref="U78"/>
+      <selection pane="bottomLeft" activeCell="M55" sqref="M55"/>
       <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
@@ -2181,57 +2224,57 @@
   <sheetData>
     <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="G2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="L2" s="36" t="s">
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="L2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
-      <c r="Q2" s="34" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="Q2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="W2" s="32" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="W2" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="AA2" s="33" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="AA2" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="AB2" s="33"/>
+      <c r="AB2" s="35"/>
     </row>
     <row r="3" spans="2:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
@@ -2282,6 +2325,9 @@
       <c r="T4" t="s">
         <v>3</v>
       </c>
+      <c r="V4" t="s">
+        <v>470</v>
+      </c>
       <c r="W4" t="s">
         <v>9</v>
       </c>
@@ -2313,13 +2359,16 @@
       <c r="J5" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="32" t="s">
         <v>175</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="str">
+        <f t="shared" ref="M5:M68" si="0">DEC2BIN(L5, 7)</f>
+        <v>0000000</v>
+      </c>
       <c r="N5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2331,6 +2380,9 @@
       </c>
       <c r="R5" t="s">
         <v>382</v>
+      </c>
+      <c r="V5" t="s">
+        <v>471</v>
       </c>
       <c r="W5" t="s">
         <v>10</v>
@@ -2363,11 +2415,14 @@
       <c r="J6" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0000001</v>
+      </c>
       <c r="N6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2379,6 +2434,9 @@
       </c>
       <c r="R6" t="s">
         <v>383</v>
+      </c>
+      <c r="V6" t="s">
+        <v>472</v>
       </c>
       <c r="W6" t="s">
         <v>11</v>
@@ -2411,11 +2469,14 @@
       <c r="J7" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="2">
         <v>2</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2427,6 +2488,9 @@
       </c>
       <c r="R7" t="s">
         <v>384</v>
+      </c>
+      <c r="V7" t="s">
+        <v>473</v>
       </c>
       <c r="W7" t="s">
         <v>12</v>
@@ -2459,11 +2523,14 @@
       <c r="J8" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="K8" s="30"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0000011</v>
+      </c>
       <c r="N8" s="1" t="s">
         <v>21</v>
       </c>
@@ -2475,6 +2542,9 @@
       </c>
       <c r="R8" t="s">
         <v>385</v>
+      </c>
+      <c r="V8" t="s">
+        <v>474</v>
       </c>
       <c r="W8" t="s">
         <v>13</v>
@@ -2507,11 +2577,14 @@
       <c r="J9" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="K9" s="30"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="2">
         <v>4</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0000100</v>
+      </c>
       <c r="N9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2523,6 +2596,9 @@
       </c>
       <c r="R9" t="s">
         <v>386</v>
+      </c>
+      <c r="V9" t="s">
+        <v>475</v>
       </c>
       <c r="W9" t="s">
         <v>14</v>
@@ -2549,17 +2625,20 @@
         <v>5</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="30" t="s">
         <v>371</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="K10" s="30"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="2">
         <v>5</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0000101</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2571,6 +2650,9 @@
       </c>
       <c r="R10" t="s">
         <v>387</v>
+      </c>
+      <c r="V10" t="s">
+        <v>476</v>
       </c>
       <c r="W10" t="s">
         <v>15</v>
@@ -2597,11 +2679,14 @@
       <c r="J11" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="K11" s="30"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="2">
         <v>6</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0000110</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>24</v>
       </c>
@@ -2613,6 +2698,9 @@
       </c>
       <c r="R11" t="s">
         <v>388</v>
+      </c>
+      <c r="V11" t="s">
+        <v>477</v>
       </c>
       <c r="W11" t="s">
         <v>16</v>
@@ -2639,11 +2727,14 @@
       <c r="J12" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="K12" s="30"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="2">
         <v>7</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0000111</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>25</v>
       </c>
@@ -2655,6 +2746,12 @@
       </c>
       <c r="R12" t="s">
         <v>389</v>
+      </c>
+      <c r="V12" t="s">
+        <v>478</v>
+      </c>
+      <c r="W12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
@@ -2678,11 +2775,14 @@
       <c r="J13" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="30"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="2">
         <v>8</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0001000</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>26</v>
       </c>
@@ -2695,8 +2795,11 @@
       <c r="R13" t="s">
         <v>390</v>
       </c>
+      <c r="V13" t="s">
+        <v>479</v>
+      </c>
       <c r="W13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
@@ -2720,11 +2823,14 @@
       <c r="J14" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K14" s="30"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="2">
         <v>9</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0001001</v>
+      </c>
       <c r="N14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2736,9 +2842,6 @@
       </c>
       <c r="R14" t="s">
         <v>391</v>
-      </c>
-      <c r="W14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
@@ -2762,11 +2865,14 @@
       <c r="J15" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K15" s="30"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="2">
         <v>10</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0001010</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>35</v>
       </c>
@@ -2804,11 +2910,14 @@
       <c r="J16" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K16" s="30"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="2">
         <v>11</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0001011</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>36</v>
       </c>
@@ -2846,11 +2955,14 @@
       <c r="J17" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="K17" s="30"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="2">
         <v>12</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0001100</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>37</v>
       </c>
@@ -2888,11 +3000,14 @@
       <c r="J18" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="K18" s="30"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="2">
         <v>13</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0001101</v>
+      </c>
       <c r="N18" s="9" t="s">
         <v>132</v>
       </c>
@@ -2930,11 +3045,14 @@
       <c r="J19" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="K19" s="30"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="2">
         <v>14</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0001110</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2972,11 +3090,14 @@
       <c r="J20" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K20" s="30"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="2">
         <v>15</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0001111</v>
+      </c>
       <c r="N20" s="1" t="s">
         <v>39</v>
       </c>
@@ -3014,11 +3135,14 @@
       <c r="J21" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K21" s="30"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="2">
         <v>16</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000</v>
+      </c>
       <c r="N21" s="9" t="s">
         <v>135</v>
       </c>
@@ -3056,11 +3180,14 @@
       <c r="J22" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="K22" s="30"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="2">
         <v>17</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0010001</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>40</v>
       </c>
@@ -3095,11 +3222,14 @@
       <c r="J23" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K23" s="30"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="2">
         <v>18</v>
       </c>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0010010</v>
+      </c>
       <c r="N23" s="1" t="s">
         <v>41</v>
       </c>
@@ -3134,11 +3264,14 @@
       <c r="J24" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K24" s="30"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="2">
         <v>19</v>
       </c>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0010011</v>
+      </c>
       <c r="N24" s="1" t="s">
         <v>42</v>
       </c>
@@ -3173,11 +3306,14 @@
       <c r="J25" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="K25" s="30"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="2">
         <v>20</v>
       </c>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0010100</v>
+      </c>
       <c r="N25" s="1" t="s">
         <v>43</v>
       </c>
@@ -3212,11 +3348,14 @@
       <c r="J26" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="K26" s="30"/>
+      <c r="K26" s="32"/>
       <c r="L26" s="2">
         <v>21</v>
       </c>
-      <c r="M26" s="1"/>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0010101</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>44</v>
       </c>
@@ -3244,18 +3383,21 @@
       <c r="G27" s="2">
         <v>22</v>
       </c>
-      <c r="H27" s="43"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="17" t="s">
         <v>377</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="K27" s="30"/>
+      <c r="K27" s="32"/>
       <c r="L27" s="2">
         <v>22</v>
       </c>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0010110</v>
+      </c>
       <c r="N27" s="1" t="s">
         <v>45</v>
       </c>
@@ -3283,18 +3425,21 @@
       <c r="G28" s="2">
         <v>23</v>
       </c>
-      <c r="H28" s="43"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="17" t="s">
         <v>378</v>
       </c>
       <c r="J28" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="K28" s="30"/>
+      <c r="K28" s="32"/>
       <c r="L28" s="2">
         <v>23</v>
       </c>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0010111</v>
+      </c>
       <c r="N28" s="1" t="s">
         <v>46</v>
       </c>
@@ -3323,17 +3468,20 @@
         <v>24</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="K29" s="30"/>
+      <c r="I29" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="K29" s="32"/>
       <c r="L29" s="2">
         <v>24</v>
       </c>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0011000</v>
+      </c>
       <c r="N29" s="1" t="s">
         <v>47</v>
       </c>
@@ -3368,11 +3516,14 @@
       <c r="J30" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K30" s="30"/>
+      <c r="K30" s="32"/>
       <c r="L30" s="2">
         <v>25</v>
       </c>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001</v>
+      </c>
       <c r="N30" s="1" t="s">
         <v>48</v>
       </c>
@@ -3407,11 +3558,14 @@
       <c r="J31" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K31" s="30"/>
+      <c r="K31" s="32"/>
       <c r="L31" s="2">
         <v>26</v>
       </c>
-      <c r="M31" s="1"/>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0011010</v>
+      </c>
       <c r="N31" s="1" t="s">
         <v>49</v>
       </c>
@@ -3446,11 +3600,14 @@
       <c r="J32" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K32" s="30"/>
+      <c r="K32" s="32"/>
       <c r="L32" s="2">
         <v>27</v>
       </c>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0011011</v>
+      </c>
       <c r="N32" s="1" t="s">
         <v>50</v>
       </c>
@@ -3485,11 +3642,14 @@
       <c r="J33" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K33" s="30"/>
+      <c r="K33" s="32"/>
       <c r="L33" s="2">
         <v>28</v>
       </c>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0011100</v>
+      </c>
       <c r="N33" s="1" t="s">
         <v>51</v>
       </c>
@@ -3524,11 +3684,14 @@
       <c r="J34" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K34" s="30"/>
+      <c r="K34" s="32"/>
       <c r="L34" s="2">
         <v>29</v>
       </c>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0011101</v>
+      </c>
       <c r="N34" s="1" t="s">
         <v>52</v>
       </c>
@@ -3563,11 +3726,14 @@
       <c r="J35" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K35" s="30"/>
+      <c r="K35" s="32"/>
       <c r="L35" s="2">
         <v>30</v>
       </c>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0011110</v>
+      </c>
       <c r="N35" s="1" t="s">
         <v>53</v>
       </c>
@@ -3602,11 +3768,14 @@
       <c r="J36" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K36" s="30"/>
+      <c r="K36" s="32"/>
       <c r="L36" s="2">
         <v>31</v>
       </c>
-      <c r="M36" s="1"/>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0011111</v>
+      </c>
       <c r="N36" s="1" t="s">
         <v>54</v>
       </c>
@@ -3639,13 +3808,16 @@
         <v>214</v>
       </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="33" t="s">
         <v>176</v>
       </c>
       <c r="L37" s="2">
         <v>32</v>
       </c>
-      <c r="M37" s="1"/>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>55</v>
       </c>
@@ -3678,11 +3850,14 @@
         <v>215</v>
       </c>
       <c r="J38" s="3"/>
-      <c r="K38" s="31"/>
+      <c r="K38" s="33"/>
       <c r="L38" s="2">
         <v>33</v>
       </c>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0100001</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>56</v>
       </c>
@@ -3715,11 +3890,14 @@
         <v>216</v>
       </c>
       <c r="J39" s="3"/>
-      <c r="K39" s="31"/>
+      <c r="K39" s="33"/>
       <c r="L39" s="2">
         <v>34</v>
       </c>
-      <c r="M39" s="1"/>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0100010</v>
+      </c>
       <c r="N39" s="1" t="s">
         <v>57</v>
       </c>
@@ -3752,11 +3930,14 @@
         <v>217</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="31"/>
+      <c r="K40" s="33"/>
       <c r="L40" s="2">
         <v>35</v>
       </c>
-      <c r="M40" s="1"/>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0100011</v>
+      </c>
       <c r="N40" s="1" t="s">
         <v>58</v>
       </c>
@@ -3789,11 +3970,14 @@
         <v>221</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="31"/>
+      <c r="K41" s="33"/>
       <c r="L41" s="2">
         <v>36</v>
       </c>
-      <c r="M41" s="1"/>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0100100</v>
+      </c>
       <c r="N41" s="1" t="s">
         <v>59</v>
       </c>
@@ -3826,11 +4010,14 @@
         <v>220</v>
       </c>
       <c r="J42" s="3"/>
-      <c r="K42" s="31"/>
+      <c r="K42" s="33"/>
       <c r="L42" s="2">
         <v>37</v>
       </c>
-      <c r="M42" s="1"/>
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0100101</v>
+      </c>
       <c r="N42" s="1" t="s">
         <v>60</v>
       </c>
@@ -3863,11 +4050,14 @@
         <v>219</v>
       </c>
       <c r="J43" s="3"/>
-      <c r="K43" s="31"/>
+      <c r="K43" s="33"/>
       <c r="L43" s="2">
         <v>38</v>
       </c>
-      <c r="M43" s="1"/>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0100110</v>
+      </c>
       <c r="N43" s="1" t="s">
         <v>381</v>
       </c>
@@ -3900,11 +4090,14 @@
         <v>222</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="K44" s="31"/>
+      <c r="K44" s="33"/>
       <c r="L44" s="2">
         <v>39</v>
       </c>
-      <c r="M44" s="1"/>
+      <c r="M44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0100111</v>
+      </c>
       <c r="N44" s="1" t="s">
         <v>61</v>
       </c>
@@ -3937,11 +4130,14 @@
         <v>218</v>
       </c>
       <c r="J45" s="3"/>
-      <c r="K45" s="31"/>
+      <c r="K45" s="33"/>
       <c r="L45" s="2">
         <v>40</v>
       </c>
-      <c r="M45" s="1"/>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000</v>
+      </c>
       <c r="N45" s="1" t="s">
         <v>62</v>
       </c>
@@ -3974,11 +4170,14 @@
         <v>223</v>
       </c>
       <c r="J46" s="3"/>
-      <c r="K46" s="31"/>
+      <c r="K46" s="33"/>
       <c r="L46" s="2">
         <v>41</v>
       </c>
-      <c r="M46" s="1"/>
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0101001</v>
+      </c>
       <c r="N46" s="9" t="s">
         <v>134</v>
       </c>
@@ -4011,11 +4210,14 @@
         <v>224</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="31"/>
+      <c r="K47" s="33"/>
       <c r="L47" s="2">
         <v>42</v>
       </c>
-      <c r="M47" s="1"/>
+      <c r="M47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0101010</v>
+      </c>
       <c r="N47" s="1" t="s">
         <v>63</v>
       </c>
@@ -4048,11 +4250,14 @@
         <v>226</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="31"/>
+      <c r="K48" s="33"/>
       <c r="L48" s="2">
         <v>43</v>
       </c>
-      <c r="M48" s="1"/>
+      <c r="M48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0101011</v>
+      </c>
       <c r="N48" s="1" t="s">
         <v>64</v>
       </c>
@@ -4085,11 +4290,14 @@
         <v>225</v>
       </c>
       <c r="J49" s="3"/>
-      <c r="K49" s="31"/>
+      <c r="K49" s="33"/>
       <c r="L49" s="2">
         <v>44</v>
       </c>
-      <c r="M49" s="1"/>
+      <c r="M49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0101100</v>
+      </c>
       <c r="N49" s="1" t="s">
         <v>65</v>
       </c>
@@ -4122,11 +4330,14 @@
         <v>227</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="K50" s="31"/>
+      <c r="K50" s="33"/>
       <c r="L50" s="2">
         <v>45</v>
       </c>
-      <c r="M50" s="1"/>
+      <c r="M50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0101101</v>
+      </c>
       <c r="N50" s="1" t="s">
         <v>66</v>
       </c>
@@ -4159,11 +4370,14 @@
         <v>228</v>
       </c>
       <c r="J51" s="3"/>
-      <c r="K51" s="31"/>
+      <c r="K51" s="33"/>
       <c r="L51" s="2">
         <v>46</v>
       </c>
-      <c r="M51" s="1"/>
+      <c r="M51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0101110</v>
+      </c>
       <c r="N51" s="1" t="s">
         <v>67</v>
       </c>
@@ -4196,11 +4410,14 @@
         <v>229</v>
       </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="31"/>
+      <c r="K52" s="33"/>
       <c r="L52" s="2">
         <v>47</v>
       </c>
-      <c r="M52" s="1"/>
+      <c r="M52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0101111</v>
+      </c>
       <c r="N52" s="1" t="s">
         <v>68</v>
       </c>
@@ -4233,11 +4450,14 @@
         <v>230</v>
       </c>
       <c r="J53" s="3"/>
-      <c r="K53" s="31"/>
+      <c r="K53" s="33"/>
       <c r="L53" s="2">
         <v>48</v>
       </c>
-      <c r="M53" s="1"/>
+      <c r="M53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000</v>
+      </c>
       <c r="N53" s="1" t="s">
         <v>69</v>
       </c>
@@ -4270,11 +4490,14 @@
         <v>231</v>
       </c>
       <c r="J54" s="3"/>
-      <c r="K54" s="31"/>
+      <c r="K54" s="33"/>
       <c r="L54" s="2">
         <v>49</v>
       </c>
-      <c r="M54" s="1"/>
+      <c r="M54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0110001</v>
+      </c>
       <c r="N54" s="1" t="s">
         <v>70</v>
       </c>
@@ -4307,11 +4530,14 @@
         <v>232</v>
       </c>
       <c r="J55" s="3"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="2">
+      <c r="K55" s="33"/>
+      <c r="L55" s="44">
         <v>50</v>
       </c>
-      <c r="M55" s="1"/>
+      <c r="M55" s="1" t="str">
+        <f>DEC2BIN(L55, 7)</f>
+        <v>0110010</v>
+      </c>
       <c r="N55" s="1" t="s">
         <v>71</v>
       </c>
@@ -4344,11 +4570,14 @@
         <v>233</v>
       </c>
       <c r="J56" s="3"/>
-      <c r="K56" s="31"/>
+      <c r="K56" s="33"/>
       <c r="L56" s="2">
         <v>51</v>
       </c>
-      <c r="M56" s="1"/>
+      <c r="M56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0110011</v>
+      </c>
       <c r="N56" s="1" t="s">
         <v>72</v>
       </c>
@@ -4383,11 +4612,14 @@
       <c r="J57" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K57" s="31"/>
+      <c r="K57" s="33"/>
       <c r="L57" s="2">
         <v>52</v>
       </c>
-      <c r="M57" s="1"/>
+      <c r="M57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0110100</v>
+      </c>
       <c r="N57" s="1" t="s">
         <v>74</v>
       </c>
@@ -4422,11 +4654,14 @@
       <c r="J58" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K58" s="31"/>
+      <c r="K58" s="33"/>
       <c r="L58" s="2">
         <v>53</v>
       </c>
-      <c r="M58" s="1"/>
+      <c r="M58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0110101</v>
+      </c>
       <c r="N58" s="1" t="s">
         <v>75</v>
       </c>
@@ -4461,11 +4696,14 @@
       <c r="J59" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K59" s="31"/>
+      <c r="K59" s="33"/>
       <c r="L59" s="2">
         <v>54</v>
       </c>
-      <c r="M59" s="1"/>
+      <c r="M59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0110110</v>
+      </c>
       <c r="N59" s="1" t="s">
         <v>76</v>
       </c>
@@ -4500,11 +4738,14 @@
       <c r="J60" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K60" s="31"/>
+      <c r="K60" s="33"/>
       <c r="L60" s="2">
         <v>55</v>
       </c>
-      <c r="M60" s="1"/>
+      <c r="M60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0110111</v>
+      </c>
       <c r="N60" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,11 +4780,14 @@
       <c r="J61" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K61" s="31"/>
+      <c r="K61" s="33"/>
       <c r="L61" s="2">
         <v>56</v>
       </c>
-      <c r="M61" s="1"/>
+      <c r="M61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000</v>
+      </c>
       <c r="N61" s="1" t="s">
         <v>80</v>
       </c>
@@ -4578,11 +4822,14 @@
       <c r="J62" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K62" s="31"/>
+      <c r="K62" s="33"/>
       <c r="L62" s="2">
         <v>57</v>
       </c>
-      <c r="M62" s="1"/>
+      <c r="M62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0111001</v>
+      </c>
       <c r="N62" s="9" t="s">
         <v>362</v>
       </c>
@@ -4617,11 +4864,14 @@
       <c r="J63" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K63" s="31"/>
+      <c r="K63" s="33"/>
       <c r="L63" s="2">
         <v>58</v>
       </c>
-      <c r="M63" s="1"/>
+      <c r="M63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0111010</v>
+      </c>
       <c r="N63" s="1" t="s">
         <v>363</v>
       </c>
@@ -4656,11 +4906,14 @@
       <c r="J64" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K64" s="31"/>
+      <c r="K64" s="33"/>
       <c r="L64" s="2">
         <v>59</v>
       </c>
-      <c r="M64" s="1"/>
+      <c r="M64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0111011</v>
+      </c>
       <c r="N64" s="9" t="s">
         <v>349</v>
       </c>
@@ -4695,11 +4948,14 @@
       <c r="J65" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K65" s="31"/>
+      <c r="K65" s="33"/>
       <c r="L65" s="2">
         <v>60</v>
       </c>
-      <c r="M65" s="1"/>
+      <c r="M65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0111100</v>
+      </c>
       <c r="N65" s="1" t="s">
         <v>354</v>
       </c>
@@ -4734,11 +4990,14 @@
       <c r="J66" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K66" s="31"/>
+      <c r="K66" s="33"/>
       <c r="L66" s="2">
         <v>61</v>
       </c>
-      <c r="M66" s="1"/>
+      <c r="M66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0111101</v>
+      </c>
       <c r="N66" s="1" t="s">
         <v>355</v>
       </c>
@@ -4773,11 +5032,14 @@
       <c r="J67" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="K67" s="31"/>
+      <c r="K67" s="33"/>
       <c r="L67" s="2">
         <v>62</v>
       </c>
-      <c r="M67" s="1"/>
+      <c r="M67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0111110</v>
+      </c>
       <c r="N67" s="1" t="s">
         <v>356</v>
       </c>
@@ -4812,11 +5074,14 @@
       <c r="J68" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="K68" s="31"/>
+      <c r="K68" s="33"/>
       <c r="L68" s="2">
         <v>63</v>
       </c>
-      <c r="M68" s="1"/>
+      <c r="M68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0111111</v>
+      </c>
       <c r="N68" s="1" t="s">
         <v>357</v>
       </c>
@@ -4834,7 +5099,10 @@
       <c r="L69" s="2">
         <v>64</v>
       </c>
-      <c r="M69" s="1"/>
+      <c r="M69" s="1" t="str">
+        <f t="shared" ref="M69:M132" si="1">DEC2BIN(L69, 7)</f>
+        <v>1000000</v>
+      </c>
       <c r="N69" s="1" t="s">
         <v>358</v>
       </c>
@@ -4852,7 +5120,10 @@
       <c r="L70" s="2">
         <v>65</v>
       </c>
-      <c r="M70" s="1"/>
+      <c r="M70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000001</v>
+      </c>
       <c r="N70" s="1" t="s">
         <v>359</v>
       </c>
@@ -4870,7 +5141,10 @@
       <c r="L71" s="2">
         <v>66</v>
       </c>
-      <c r="M71" s="1"/>
+      <c r="M71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000010</v>
+      </c>
       <c r="N71" s="1" t="s">
         <v>360</v>
       </c>
@@ -4888,7 +5162,10 @@
       <c r="L72" s="2">
         <v>67</v>
       </c>
-      <c r="M72" s="1"/>
+      <c r="M72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000011</v>
+      </c>
       <c r="N72" s="1" t="s">
         <v>361</v>
       </c>
@@ -4906,7 +5183,10 @@
       <c r="L73" s="2">
         <v>68</v>
       </c>
-      <c r="M73" s="1"/>
+      <c r="M73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000100</v>
+      </c>
       <c r="N73" s="9" t="s">
         <v>365</v>
       </c>
@@ -4924,7 +5204,10 @@
       <c r="L74" s="2">
         <v>69</v>
       </c>
-      <c r="M74" s="1"/>
+      <c r="M74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000101</v>
+      </c>
       <c r="N74" s="9" t="s">
         <v>366</v>
       </c>
@@ -4942,7 +5225,10 @@
       <c r="L75" s="2">
         <v>70</v>
       </c>
-      <c r="M75" s="1"/>
+      <c r="M75" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000110</v>
+      </c>
       <c r="N75" s="1" t="s">
         <v>109</v>
       </c>
@@ -4960,7 +5246,10 @@
       <c r="L76" s="2">
         <v>71</v>
       </c>
-      <c r="M76" s="1"/>
+      <c r="M76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000111</v>
+      </c>
       <c r="N76" s="1" t="s">
         <v>120</v>
       </c>
@@ -4978,7 +5267,10 @@
       <c r="L77" s="2">
         <v>72</v>
       </c>
-      <c r="M77" s="1"/>
+      <c r="M77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001000</v>
+      </c>
       <c r="N77" s="1" t="s">
         <v>110</v>
       </c>
@@ -4996,7 +5288,10 @@
       <c r="L78" s="2">
         <v>73</v>
       </c>
-      <c r="M78" s="1"/>
+      <c r="M78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001001</v>
+      </c>
       <c r="N78" s="1" t="s">
         <v>111</v>
       </c>
@@ -5014,7 +5309,10 @@
       <c r="L79" s="2">
         <v>74</v>
       </c>
-      <c r="M79" s="1"/>
+      <c r="M79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001010</v>
+      </c>
       <c r="N79" s="1" t="s">
         <v>112</v>
       </c>
@@ -5032,7 +5330,10 @@
       <c r="L80" s="2">
         <v>75</v>
       </c>
-      <c r="M80" s="1"/>
+      <c r="M80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001011</v>
+      </c>
       <c r="N80" s="1" t="s">
         <v>113</v>
       </c>
@@ -5050,7 +5351,10 @@
       <c r="L81" s="2">
         <v>76</v>
       </c>
-      <c r="M81" s="1"/>
+      <c r="M81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001100</v>
+      </c>
       <c r="N81" s="1" t="s">
         <v>114</v>
       </c>
@@ -5068,7 +5372,10 @@
       <c r="L82" s="2">
         <v>77</v>
       </c>
-      <c r="M82" s="1"/>
+      <c r="M82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001101</v>
+      </c>
       <c r="N82" s="1" t="s">
         <v>118</v>
       </c>
@@ -5086,7 +5393,10 @@
       <c r="L83" s="2">
         <v>78</v>
       </c>
-      <c r="M83" s="1"/>
+      <c r="M83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001110</v>
+      </c>
       <c r="N83" s="1" t="s">
         <v>116</v>
       </c>
@@ -5104,7 +5414,10 @@
       <c r="L84" s="2">
         <v>79</v>
       </c>
-      <c r="M84" s="1"/>
+      <c r="M84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1001111</v>
+      </c>
       <c r="N84" s="1" t="s">
         <v>117</v>
       </c>
@@ -5122,7 +5435,10 @@
       <c r="L85" s="2">
         <v>80</v>
       </c>
-      <c r="M85" s="1"/>
+      <c r="M85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010000</v>
+      </c>
       <c r="N85" s="1" t="s">
         <v>115</v>
       </c>
@@ -5140,7 +5456,10 @@
       <c r="L86" s="2">
         <v>81</v>
       </c>
-      <c r="M86" s="1"/>
+      <c r="M86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010001</v>
+      </c>
       <c r="N86" s="1" t="s">
         <v>119</v>
       </c>
@@ -5158,7 +5477,10 @@
       <c r="L87" s="2">
         <v>82</v>
       </c>
-      <c r="M87" s="1"/>
+      <c r="M87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010010</v>
+      </c>
       <c r="N87" s="1" t="s">
         <v>350</v>
       </c>
@@ -5176,7 +5498,10 @@
       <c r="L88" s="2">
         <v>83</v>
       </c>
-      <c r="M88" s="1"/>
+      <c r="M88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010011</v>
+      </c>
       <c r="N88" s="9" t="s">
         <v>121</v>
       </c>
@@ -5194,7 +5519,10 @@
       <c r="L89" s="2">
         <v>84</v>
       </c>
-      <c r="M89" s="1"/>
+      <c r="M89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010100</v>
+      </c>
       <c r="N89" s="9" t="s">
         <v>131</v>
       </c>
@@ -5212,7 +5540,10 @@
       <c r="L90" s="2">
         <v>85</v>
       </c>
-      <c r="M90" s="1"/>
+      <c r="M90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010101</v>
+      </c>
       <c r="N90" s="9" t="s">
         <v>122</v>
       </c>
@@ -5230,7 +5561,10 @@
       <c r="L91" s="2">
         <v>86</v>
       </c>
-      <c r="M91" s="1"/>
+      <c r="M91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010110</v>
+      </c>
       <c r="N91" s="1" t="s">
         <v>123</v>
       </c>
@@ -5248,7 +5582,10 @@
       <c r="L92" s="2">
         <v>87</v>
       </c>
-      <c r="M92" s="1"/>
+      <c r="M92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1010111</v>
+      </c>
       <c r="N92" s="1" t="s">
         <v>124</v>
       </c>
@@ -5266,7 +5603,10 @@
       <c r="L93" s="2">
         <v>88</v>
       </c>
-      <c r="M93" s="1"/>
+      <c r="M93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011000</v>
+      </c>
       <c r="N93" s="1" t="s">
         <v>125</v>
       </c>
@@ -5284,7 +5624,10 @@
       <c r="L94" s="2">
         <v>89</v>
       </c>
-      <c r="M94" s="1"/>
+      <c r="M94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011001</v>
+      </c>
       <c r="N94" s="1" t="s">
         <v>126</v>
       </c>
@@ -5302,7 +5645,10 @@
       <c r="L95" s="2">
         <v>90</v>
       </c>
-      <c r="M95" s="1"/>
+      <c r="M95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011010</v>
+      </c>
       <c r="N95" s="1" t="s">
         <v>130</v>
       </c>
@@ -5320,7 +5666,10 @@
       <c r="L96" s="2">
         <v>91</v>
       </c>
-      <c r="M96" s="1"/>
+      <c r="M96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011011</v>
+      </c>
       <c r="N96" s="1" t="s">
         <v>128</v>
       </c>
@@ -5335,7 +5684,10 @@
       <c r="L97" s="2">
         <v>92</v>
       </c>
-      <c r="M97" s="1"/>
+      <c r="M97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011100</v>
+      </c>
       <c r="N97" s="1" t="s">
         <v>129</v>
       </c>
@@ -5350,7 +5702,10 @@
       <c r="L98" s="2">
         <v>93</v>
       </c>
-      <c r="M98" s="1"/>
+      <c r="M98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011101</v>
+      </c>
       <c r="N98" s="1" t="s">
         <v>130</v>
       </c>
@@ -5365,7 +5720,10 @@
       <c r="L99" s="2">
         <v>94</v>
       </c>
-      <c r="M99" s="1"/>
+      <c r="M99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011110</v>
+      </c>
       <c r="N99" s="1" t="s">
         <v>127</v>
       </c>
@@ -5380,7 +5738,10 @@
       <c r="L100" s="2">
         <v>95</v>
       </c>
-      <c r="M100" s="1"/>
+      <c r="M100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1011111</v>
+      </c>
       <c r="N100" s="1" t="s">
         <v>352</v>
       </c>
@@ -5395,7 +5756,10 @@
       <c r="L101" s="2">
         <v>96</v>
       </c>
-      <c r="M101" s="1"/>
+      <c r="M101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1100000</v>
+      </c>
       <c r="N101" s="1" t="s">
         <v>257</v>
       </c>
@@ -5410,7 +5774,10 @@
       <c r="L102" s="2">
         <v>97</v>
       </c>
-      <c r="M102" s="1"/>
+      <c r="M102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1100001</v>
+      </c>
       <c r="N102" s="1" t="s">
         <v>258</v>
       </c>
@@ -5425,7 +5792,10 @@
       <c r="L103" s="2">
         <v>98</v>
       </c>
-      <c r="M103" s="1"/>
+      <c r="M103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1100010</v>
+      </c>
       <c r="N103" s="1" t="s">
         <v>259</v>
       </c>
@@ -5440,7 +5810,10 @@
       <c r="L104" s="2">
         <v>99</v>
       </c>
-      <c r="M104" s="1"/>
+      <c r="M104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011</v>
+      </c>
       <c r="N104" s="1" t="s">
         <v>261</v>
       </c>
@@ -5455,7 +5828,10 @@
       <c r="L105" s="2">
         <v>100</v>
       </c>
-      <c r="M105" s="1"/>
+      <c r="M105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1100100</v>
+      </c>
       <c r="N105" s="1" t="s">
         <v>262</v>
       </c>
@@ -5470,7 +5846,10 @@
       <c r="L106" s="2">
         <v>101</v>
       </c>
-      <c r="M106" s="1"/>
+      <c r="M106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1100101</v>
+      </c>
       <c r="N106" s="1" t="s">
         <v>260</v>
       </c>
@@ -5485,7 +5864,10 @@
       <c r="L107" s="2">
         <v>102</v>
       </c>
-      <c r="M107" s="1"/>
+      <c r="M107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1100110</v>
+      </c>
       <c r="N107" s="1" t="s">
         <v>263</v>
       </c>
@@ -5500,7 +5882,10 @@
       <c r="L108" s="2">
         <v>103</v>
       </c>
-      <c r="M108" s="1"/>
+      <c r="M108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1100111</v>
+      </c>
       <c r="N108" s="1" t="s">
         <v>264</v>
       </c>
@@ -5515,7 +5900,10 @@
       <c r="L109" s="2">
         <v>104</v>
       </c>
-      <c r="M109" s="1"/>
+      <c r="M109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1101000</v>
+      </c>
       <c r="N109" s="1" t="s">
         <v>265</v>
       </c>
@@ -5530,7 +5918,10 @@
       <c r="L110" s="2">
         <v>105</v>
       </c>
-      <c r="M110" s="1"/>
+      <c r="M110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1101001</v>
+      </c>
       <c r="N110" s="1" t="s">
         <v>266</v>
       </c>
@@ -5545,7 +5936,10 @@
       <c r="L111" s="2">
         <v>106</v>
       </c>
-      <c r="M111" s="1"/>
+      <c r="M111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1101010</v>
+      </c>
       <c r="N111" s="1" t="s">
         <v>268</v>
       </c>
@@ -5560,7 +5954,10 @@
       <c r="L112" s="2">
         <v>107</v>
       </c>
-      <c r="M112" s="1"/>
+      <c r="M112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1101011</v>
+      </c>
       <c r="N112" s="1" t="s">
         <v>269</v>
       </c>
@@ -5575,7 +5972,10 @@
       <c r="L113" s="2">
         <v>108</v>
       </c>
-      <c r="M113" s="1"/>
+      <c r="M113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1101100</v>
+      </c>
       <c r="N113" s="1" t="s">
         <v>267</v>
       </c>
@@ -5590,7 +5990,10 @@
       <c r="L114" s="2">
         <v>109</v>
       </c>
-      <c r="M114" s="1"/>
+      <c r="M114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1101101</v>
+      </c>
       <c r="N114" s="1" t="s">
         <v>270</v>
       </c>
@@ -5605,7 +6008,10 @@
       <c r="L115" s="2">
         <v>110</v>
       </c>
-      <c r="M115" s="1"/>
+      <c r="M115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1101110</v>
+      </c>
       <c r="N115" s="9"/>
       <c r="O115" s="19"/>
       <c r="Q115">
@@ -5616,7 +6022,10 @@
       <c r="L116" s="2">
         <v>111</v>
       </c>
-      <c r="M116" s="1"/>
+      <c r="M116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1101111</v>
+      </c>
       <c r="N116" s="9"/>
       <c r="O116" s="19"/>
       <c r="Q116">
@@ -5627,7 +6036,10 @@
       <c r="L117" s="2">
         <v>112</v>
       </c>
-      <c r="M117" s="1"/>
+      <c r="M117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1110000</v>
+      </c>
       <c r="N117" s="9"/>
       <c r="O117" s="19"/>
       <c r="Q117">
@@ -5638,7 +6050,10 @@
       <c r="L118" s="2">
         <v>113</v>
       </c>
-      <c r="M118" s="1"/>
+      <c r="M118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1110001</v>
+      </c>
       <c r="N118" s="1" t="s">
         <v>280</v>
       </c>
@@ -5653,7 +6068,10 @@
       <c r="L119" s="2">
         <v>114</v>
       </c>
-      <c r="M119" s="1"/>
+      <c r="M119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1110010</v>
+      </c>
       <c r="N119" s="1" t="s">
         <v>281</v>
       </c>
@@ -5668,7 +6086,10 @@
       <c r="L120" s="2">
         <v>115</v>
       </c>
-      <c r="M120" s="1"/>
+      <c r="M120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1110011</v>
+      </c>
       <c r="N120" s="1" t="s">
         <v>282</v>
       </c>
@@ -5683,7 +6104,10 @@
       <c r="L121" s="2">
         <v>116</v>
       </c>
-      <c r="M121" s="1"/>
+      <c r="M121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1110100</v>
+      </c>
       <c r="N121" s="1" t="s">
         <v>283</v>
       </c>
@@ -5698,7 +6122,10 @@
       <c r="L122" s="2">
         <v>117</v>
       </c>
-      <c r="M122" s="1"/>
+      <c r="M122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1110101</v>
+      </c>
       <c r="N122" s="9" t="s">
         <v>317</v>
       </c>
@@ -5713,7 +6140,10 @@
       <c r="L123" s="2">
         <v>118</v>
       </c>
-      <c r="M123" s="1"/>
+      <c r="M123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1110110</v>
+      </c>
       <c r="N123" s="9" t="s">
         <v>318</v>
       </c>
@@ -5728,7 +6158,10 @@
       <c r="L124" s="2">
         <v>119</v>
       </c>
-      <c r="M124" s="1"/>
+      <c r="M124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1110111</v>
+      </c>
       <c r="N124" s="9" t="s">
         <v>327</v>
       </c>
@@ -5743,7 +6176,10 @@
       <c r="L125" s="2">
         <v>120</v>
       </c>
-      <c r="M125" s="1"/>
+      <c r="M125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1111000</v>
+      </c>
       <c r="N125" s="1" t="s">
         <v>288</v>
       </c>
@@ -5758,7 +6194,10 @@
       <c r="L126" s="2">
         <v>121</v>
       </c>
-      <c r="M126" s="1"/>
+      <c r="M126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1111001</v>
+      </c>
       <c r="N126" s="1" t="s">
         <v>289</v>
       </c>
@@ -5773,7 +6212,10 @@
       <c r="L127" s="2">
         <v>122</v>
       </c>
-      <c r="M127" s="1"/>
+      <c r="M127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1111010</v>
+      </c>
       <c r="N127" s="1" t="s">
         <v>290</v>
       </c>
@@ -5788,7 +6230,10 @@
       <c r="L128" s="2">
         <v>123</v>
       </c>
-      <c r="M128" s="1"/>
+      <c r="M128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1111011</v>
+      </c>
       <c r="N128" s="1" t="s">
         <v>291</v>
       </c>
@@ -5803,7 +6248,10 @@
       <c r="L129" s="2">
         <v>124</v>
       </c>
-      <c r="M129" s="1"/>
+      <c r="M129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1111100</v>
+      </c>
       <c r="N129" s="1" t="s">
         <v>322</v>
       </c>
@@ -5818,7 +6266,10 @@
       <c r="L130" s="2">
         <v>125</v>
       </c>
-      <c r="M130" s="1"/>
+      <c r="M130" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1111101</v>
+      </c>
       <c r="N130" s="1" t="s">
         <v>321</v>
       </c>
@@ -5833,7 +6284,10 @@
       <c r="L131" s="2">
         <v>126</v>
       </c>
-      <c r="M131" s="1"/>
+      <c r="M131" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1111110</v>
+      </c>
       <c r="N131" s="17" t="s">
         <v>329</v>
       </c>
@@ -5848,7 +6302,10 @@
       <c r="L132" s="4">
         <v>127</v>
       </c>
-      <c r="M132" s="5"/>
+      <c r="M132" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1111111</v>
+      </c>
       <c r="N132" s="5" t="s">
         <v>271</v>
       </c>
@@ -5904,12 +6361,12 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
